--- a/38_Tables_2/homework/18_3.xlsx
+++ b/38_Tables_2/homework/18_3.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Учитель\Downloads\Обработка электронных таблиц II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\38_Tables_2\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE50EE-8304-40DF-AC41-D20B257616D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38386FD-CF37-42E6-9347-7417B6ECD2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,15 +23,45 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>из левой верхней клетки в правую нижнюю</t>
+  </si>
+  <si>
+    <t>НЕ УЧИТЫВАТЬ ТУПИКИ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,13 +70,35 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -141,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -153,6 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,13 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>13</v>
       </c>
@@ -479,7 +538,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>25</v>
       </c>
@@ -518,7 +577,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>83</v>
       </c>
@@ -548,6 +607,9 @@
       </c>
       <c r="J3" s="7">
         <v>21</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -557,7 +619,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>65</v>
       </c>
@@ -587,6 +649,9 @@
       </c>
       <c r="J4" s="7">
         <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -596,7 +661,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>93</v>
       </c>
@@ -626,6 +691,9 @@
       </c>
       <c r="J5" s="10">
         <v>96</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -635,7 +703,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -645,26 +713,29 @@
       <c r="C6" s="2">
         <v>31</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="13">
         <v>56</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="13">
         <v>72</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="13">
         <v>39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="13">
         <v>64</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="13">
         <v>51</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="13">
         <v>41</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="14">
         <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -674,7 +745,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>28</v>
       </c>
@@ -704,6 +775,9 @@
       </c>
       <c r="J7" s="7">
         <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -713,7 +787,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>89</v>
       </c>
@@ -752,7 +826,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>30</v>
       </c>
@@ -783,7 +857,12 @@
       <c r="J9" s="7">
         <v>3</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="M9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -791,7 +870,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>67</v>
       </c>
@@ -821,6 +900,433 @@
       </c>
       <c r="J10" s="10">
         <v>81</v>
+      </c>
+      <c r="M10">
+        <v>1177</v>
+      </c>
+      <c r="O10">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f>A1</f>
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <f>A12+B1</f>
+        <v>66</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:J12" si="0">B12+C1</f>
+        <v>112</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f>A12+A2</f>
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <f>MIN(B12,A13)+B2</f>
+        <v>71</v>
+      </c>
+      <c r="C13" s="2">
+        <f>MIN(C12,B13)+C2</f>
+        <v>111</v>
+      </c>
+      <c r="D13" s="2">
+        <f>MIN(D12,C13)+D2</f>
+        <v>131</v>
+      </c>
+      <c r="E13" s="2">
+        <f>MIN(E12,D13)+E2</f>
+        <v>176</v>
+      </c>
+      <c r="F13" s="2">
+        <f>MIN(F12,E13)+F2</f>
+        <v>211</v>
+      </c>
+      <c r="G13" s="2">
+        <f>MIN(G12,F13)+G2</f>
+        <v>255</v>
+      </c>
+      <c r="H13" s="2">
+        <f>MIN(H12,G13)+H2</f>
+        <v>335</v>
+      </c>
+      <c r="I13" s="2">
+        <f>MIN(I12,H13)+I2</f>
+        <v>352</v>
+      </c>
+      <c r="J13" s="2">
+        <f>MIN(J12,I13)+J2</f>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" ref="A14:A21" si="1">A13+A3</f>
+        <v>121</v>
+      </c>
+      <c r="B14" s="2">
+        <f>MIN(B13,A14)+B3</f>
+        <v>87</v>
+      </c>
+      <c r="C14" s="2">
+        <f>MIN(C13,B14)+C3</f>
+        <v>171</v>
+      </c>
+      <c r="D14" s="2">
+        <f>MIN(D13,C14)+D3</f>
+        <v>138</v>
+      </c>
+      <c r="E14" s="2">
+        <f>MIN(E13,D14)+E3</f>
+        <v>170</v>
+      </c>
+      <c r="F14" s="2">
+        <f>MIN(F13,E14)+F3</f>
+        <v>175</v>
+      </c>
+      <c r="G14" s="2">
+        <f>MIN(G13,F14)+G3</f>
+        <v>201</v>
+      </c>
+      <c r="H14" s="2">
+        <f>MIN(H13,G14)+H3</f>
+        <v>233</v>
+      </c>
+      <c r="I14" s="2">
+        <f>MIN(I13,H14)+I3</f>
+        <v>317</v>
+      </c>
+      <c r="J14" s="2">
+        <f>MIN(J13,I14)+J3</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B15" s="2">
+        <f>MIN(B14,A15)+B4</f>
+        <v>97</v>
+      </c>
+      <c r="C15" s="2">
+        <f>MIN(C14,B15)+C4</f>
+        <v>162</v>
+      </c>
+      <c r="D15" s="2">
+        <f>MIN(D14,C15)+D4</f>
+        <v>147</v>
+      </c>
+      <c r="E15" s="2">
+        <f>MIN(E14,D15)+E4</f>
+        <v>218</v>
+      </c>
+      <c r="F15" s="2">
+        <f>MIN(F14,E15)+F4</f>
+        <v>260</v>
+      </c>
+      <c r="G15" s="2">
+        <f>MIN(G14,F15)+G4</f>
+        <v>241</v>
+      </c>
+      <c r="H15" s="2">
+        <f>MIN(H14,G15)+H4</f>
+        <v>256</v>
+      </c>
+      <c r="I15" s="2">
+        <f>MIN(I14,H15)+I4</f>
+        <v>340</v>
+      </c>
+      <c r="J15" s="2">
+        <f>MIN(J14,I15)+J4</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(B15,A16)+B5</f>
+        <v>146</v>
+      </c>
+      <c r="C16" s="2">
+        <f>MIN(C15,B16)+C5</f>
+        <v>212</v>
+      </c>
+      <c r="D16" s="2">
+        <f>MIN(D15,C16)+D5</f>
+        <v>231</v>
+      </c>
+      <c r="E16" s="2">
+        <f>MIN(E15,D16)+E5</f>
+        <v>315</v>
+      </c>
+      <c r="F16" s="2">
+        <f>MIN(F15,E16)+F5</f>
+        <v>333</v>
+      </c>
+      <c r="G16" s="2">
+        <f>MIN(G15,F16)+G5</f>
+        <v>251</v>
+      </c>
+      <c r="H16" s="2">
+        <f>MIN(H15,G16)+H5</f>
+        <v>286</v>
+      </c>
+      <c r="I16" s="2">
+        <f>MIN(I15,H16)+I5</f>
+        <v>311</v>
+      </c>
+      <c r="J16" s="2">
+        <f>MIN(J15,I16)+J5</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MIN(B16,A17)+B6</f>
+        <v>193</v>
+      </c>
+      <c r="C17" s="2">
+        <f>MIN(C16,B17)+C6</f>
+        <v>224</v>
+      </c>
+      <c r="D17" s="13">
+        <f>C17+D6</f>
+        <v>280</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" ref="E17:J17" si="2">D17+E6</f>
+        <v>352</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="2"/>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="B18" s="2">
+        <f>MIN(B17,A18)+B7</f>
+        <v>215</v>
+      </c>
+      <c r="C18" s="2">
+        <f>MIN(C17,B18)+C7</f>
+        <v>285</v>
+      </c>
+      <c r="D18" s="2">
+        <f>MIN(D17,C18)+D7</f>
+        <v>330</v>
+      </c>
+      <c r="E18" s="2">
+        <f>MIN(E17,D18)+E7</f>
+        <v>384</v>
+      </c>
+      <c r="F18" s="2">
+        <f>MIN(F17,E18)+F7</f>
+        <v>387</v>
+      </c>
+      <c r="G18" s="2">
+        <f>MIN(G17,F18)+G7</f>
+        <v>429</v>
+      </c>
+      <c r="H18" s="2">
+        <f>MIN(H17,G18)+H7</f>
+        <v>449</v>
+      </c>
+      <c r="I18" s="2">
+        <f>MIN(I17,H18)+I7</f>
+        <v>547</v>
+      </c>
+      <c r="J18" s="2">
+        <f>MIN(J17,I18)+J7</f>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="B19" s="2">
+        <f>MIN(B18,A19)+B8</f>
+        <v>297</v>
+      </c>
+      <c r="C19" s="2">
+        <f>MIN(C18,B19)+C8</f>
+        <v>324</v>
+      </c>
+      <c r="D19" s="2">
+        <f>MIN(D18,C19)+D8</f>
+        <v>385</v>
+      </c>
+      <c r="E19" s="2">
+        <f>MIN(E18,D19)+E8</f>
+        <v>454</v>
+      </c>
+      <c r="F19" s="2">
+        <f>MIN(F18,E19)+F8</f>
+        <v>394</v>
+      </c>
+      <c r="G19" s="2">
+        <f>MIN(G18,F19)+G8</f>
+        <v>473</v>
+      </c>
+      <c r="H19" s="2">
+        <f>MIN(H18,G19)+H8</f>
+        <v>497</v>
+      </c>
+      <c r="I19" s="2">
+        <f>MIN(I18,H19)+I8</f>
+        <v>528</v>
+      </c>
+      <c r="J19" s="2">
+        <f>MIN(J18,I19)+J8</f>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="B20" s="2">
+        <f>MIN(B19,A20)+B9</f>
+        <v>335</v>
+      </c>
+      <c r="C20" s="2">
+        <f>MIN(C19,B20)+C9</f>
+        <v>366</v>
+      </c>
+      <c r="D20" s="2">
+        <f>MIN(D19,C20)+D9</f>
+        <v>395</v>
+      </c>
+      <c r="E20" s="2">
+        <f>MIN(E19,D20)+E9</f>
+        <v>495</v>
+      </c>
+      <c r="F20" s="2">
+        <f>MIN(F19,E20)+F9</f>
+        <v>484</v>
+      </c>
+      <c r="G20" s="2">
+        <f>MIN(G19,F20)+G9</f>
+        <v>528</v>
+      </c>
+      <c r="H20" s="2">
+        <f>MIN(H19,G20)+H9</f>
+        <v>561</v>
+      </c>
+      <c r="I20" s="2">
+        <f>MIN(I19,H20)+I9</f>
+        <v>619</v>
+      </c>
+      <c r="J20" s="2">
+        <f>MIN(J19,I20)+J9</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+      <c r="B21" s="2">
+        <f>MIN(B20,A21)+B10</f>
+        <v>338</v>
+      </c>
+      <c r="C21" s="2">
+        <f>MIN(C20,B21)+C10</f>
+        <v>410</v>
+      </c>
+      <c r="D21" s="2">
+        <f>MIN(D20,C21)+D10</f>
+        <v>474</v>
+      </c>
+      <c r="E21" s="2">
+        <f>MIN(E20,D21)+E10</f>
+        <v>509</v>
+      </c>
+      <c r="F21" s="2">
+        <f>MIN(F20,E21)+F10</f>
+        <v>502</v>
+      </c>
+      <c r="G21" s="2">
+        <f>MIN(G20,F21)+G10</f>
+        <v>538</v>
+      </c>
+      <c r="H21" s="2">
+        <f>MIN(H20,G21)+H10</f>
+        <v>627</v>
+      </c>
+      <c r="I21" s="2">
+        <f>MIN(I20,H21)+I10</f>
+        <v>638</v>
+      </c>
+      <c r="J21" s="2">
+        <f>MIN(J20,I21)+J10</f>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
